--- a/output/below_50/tRNA-Cys-GCA-9-1.xlsx
+++ b/output/below_50/tRNA-Cys-GCA-9-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>chr3</t>
   </si>
@@ -159,156 +159,6 @@
   </si>
   <si>
     <t>64</t>
-  </si>
-  <si>
-    <t>131950695</t>
-  </si>
-  <si>
-    <t>131950718</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>131950698</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>AGCATGGGGGTATAGCTCAG</t>
-  </si>
-  <si>
-    <t>100% (76)</t>
-  </si>
-  <si>
-    <t>94% (74)</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 29, Doench 2016: 100%, Moreno-Mateos: 94%</t>
-  </si>
-  <si>
-    <t>1.11985E+11</t>
-  </si>
-  <si>
-    <t>131950708</t>
-  </si>
-  <si>
-    <t>131950731</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>131950711</t>
-  </si>
-  <si>
-    <t>AAGCAAGCTTACCAGCATGG</t>
-  </si>
-  <si>
-    <t>100% (75)</t>
-  </si>
-  <si>
-    <t>88% (67)</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 41, Doench 2016: 100%, Moreno-Mateos: 88%</t>
-  </si>
-  <si>
-    <t>33062640867</t>
-  </si>
-  <si>
-    <t>131950746</t>
-  </si>
-  <si>
-    <t>131950769</t>
-  </si>
-  <si>
-    <t>131950766</t>
-  </si>
-  <si>
-    <t>CTCTCTCTCTCTCAACATTC</t>
-  </si>
-  <si>
-    <t>5% (25)</t>
-  </si>
-  <si>
-    <t>14% (26)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 41, Doench 2016: 5%, Moreno-Mateos: 14%</t>
-  </si>
-  <si>
-    <t>2.29474E+11</t>
-  </si>
-  <si>
-    <t>131950875</t>
-  </si>
-  <si>
-    <t>131950898</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>131950895</t>
-  </si>
-  <si>
-    <t>CTCCTGAAAACTAAGTTCTC</t>
-  </si>
-  <si>
-    <t>53% (51)</t>
-  </si>
-  <si>
-    <t>22% (31)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 47, Doench 2016: 53%, Moreno-Mateos: 22%</t>
-  </si>
-  <si>
-    <t>1.75334E+11</t>
-  </si>
-  <si>
-    <t>131951133</t>
-  </si>
-  <si>
-    <t>131951156</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>131951136</t>
-  </si>
-  <si>
-    <t>AATTTAATGCAACAAATATC</t>
-  </si>
-  <si>
-    <t>14% (35)</t>
-  </si>
-  <si>
-    <t>13% (25)</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 35, Doench 2016: 14%, Moreno-Mateos: 13%</t>
-  </si>
-  <si>
-    <t>2.02073E+11</t>
   </si>
 </sst>
 </file>
@@ -353,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -654,301 +504,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" t="s">
-        <v>59</v>
-      </c>
-      <c r="S6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s">
-        <v>69</v>
-      </c>
-      <c r="S7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" t="s">
-        <v>77</v>
-      </c>
-      <c r="S8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" t="s">
-        <v>85</v>
-      </c>
-      <c r="P9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R9" t="s">
-        <v>87</v>
-      </c>
-      <c r="S9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" t="s">
-        <v>94</v>
-      </c>
-      <c r="O10" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>96</v>
-      </c>
-      <c r="R10" t="s">
-        <v>97</v>
-      </c>
-      <c r="S10" t="s">
-        <v>98</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
